--- a/resources/templates/data/Certificados 5.0 QA - AT.xlsx
+++ b/resources/templates/data/Certificados 5.0 QA - AT.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cristian\Portofolio\emailAutomation\resources\templates\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46347D53-6C71-4D1B-A3D7-F9AF67B02FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="QA-05" sheetId="1" r:id="rId1"/>
     <sheet name="AT-05" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -26,9 +20,114 @@
     <t>Numero</t>
   </si>
   <si>
+    <t>COURSE</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NAME_CERTIFICATE</t>
+  </si>
+  <si>
+    <t>CELULAR</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Certificado Enviado</t>
+  </si>
+  <si>
+    <t>CREDENTIAL_ID</t>
+  </si>
+  <si>
+    <t>CREDENTIAL_URL</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Manual Training</t>
+  </si>
+  <si>
+    <t>Usuario-109</t>
+  </si>
+  <si>
+    <t>Noemi Villca Lazarro</t>
+  </si>
+  <si>
+    <t>Noemi Villca L.</t>
+  </si>
+  <si>
+    <t>cristiansalazar822@gmail.com</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>d0ad4694320b0f3c</t>
+  </si>
+  <si>
+    <t>https://www.qa-cademy.com/certificates/d0ad4694320b0f3c/Certificate.pdf</t>
+  </si>
+  <si>
+    <t>Usuario-375-1</t>
+  </si>
+  <si>
+    <t>Kevin Illanes Sanchez</t>
+  </si>
+  <si>
+    <t>Kevin Illanes S.</t>
+  </si>
+  <si>
+    <t>qatest010822+2@gmail.com</t>
+  </si>
+  <si>
+    <t>0ce6016e3fed8204</t>
+  </si>
+  <si>
+    <t>https://www.qa-cademy.com/certificates/0ce6016e3fed8204/Certificate.pdf</t>
+  </si>
+  <si>
+    <t>Usuario-347</t>
+  </si>
+  <si>
+    <t>Varinia Mónica García Grágeda</t>
+  </si>
+  <si>
+    <t>Varinia M. García G.</t>
+  </si>
+  <si>
+    <t>qatest010822+3@gmail.com</t>
+  </si>
+  <si>
+    <t>93cf3179fd408a95</t>
+  </si>
+  <si>
+    <t>https://www.qa-cademy.com/certificates/93cf3179fd408a95/Certificate.pdf</t>
+  </si>
+  <si>
+    <t>Usuario-399</t>
+  </si>
+  <si>
+    <t>Pablo David de los Rios Tavera</t>
+  </si>
+  <si>
+    <t>Pablo D. de los Rios T.</t>
+  </si>
+  <si>
+    <t>qatest010822+4@gmail.com</t>
+  </si>
+  <si>
+    <t>01a5a52e95202754</t>
+  </si>
+  <si>
+    <t>https://www.qa-cademy.com/certificates/01a5a52e95202754/Certificate.pdf</t>
+  </si>
+  <si>
     <t>Nombre Completo</t>
   </si>
   <si>
@@ -41,81 +140,12 @@
     <t>email</t>
   </si>
   <si>
-    <t>Certificado Enviado</t>
-  </si>
-  <si>
     <t>Cert ID</t>
   </si>
   <si>
     <t>Cert URL</t>
   </si>
   <si>
-    <t>Nota</t>
-  </si>
-  <si>
-    <t>Usuario-109</t>
-  </si>
-  <si>
-    <t>Noemi Villca Lazarro</t>
-  </si>
-  <si>
-    <t>Noemi Villca L.</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>d0ad4694320b0f3c</t>
-  </si>
-  <si>
-    <t>https://www.qa-cademy.com/certificates/d0ad4694320b0f3c/Certificate.pdf</t>
-  </si>
-  <si>
-    <t>Usuario-375-1</t>
-  </si>
-  <si>
-    <t>Kevin Illanes Sanchez</t>
-  </si>
-  <si>
-    <t>Kevin Illanes S.</t>
-  </si>
-  <si>
-    <t>0ce6016e3fed8204</t>
-  </si>
-  <si>
-    <t>https://www.qa-cademy.com/certificates/0ce6016e3fed8204/Certificate.pdf</t>
-  </si>
-  <si>
-    <t>Usuario-347</t>
-  </si>
-  <si>
-    <t>Varinia Mónica García Grágeda</t>
-  </si>
-  <si>
-    <t>Varinia M. García G.</t>
-  </si>
-  <si>
-    <t>93cf3179fd408a95</t>
-  </si>
-  <si>
-    <t>https://www.qa-cademy.com/certificates/93cf3179fd408a95/Certificate.pdf</t>
-  </si>
-  <si>
-    <t>Usuario-399</t>
-  </si>
-  <si>
-    <t>Pablo David de los Rios Tavera</t>
-  </si>
-  <si>
-    <t>Pablo D. de los Rios T.</t>
-  </si>
-  <si>
-    <t>01a5a52e95202754</t>
-  </si>
-  <si>
-    <t>https://www.qa-cademy.com/certificates/01a5a52e95202754/Certificate.pdf</t>
-  </si>
-  <si>
     <t>Usuario-175</t>
   </si>
   <si>
@@ -279,97 +309,216 @@
   </si>
   <si>
     <t>https://www.qa-cademy.com/certificates/7be9057042a5a5af/Certificate.pdf</t>
-  </si>
-  <si>
-    <t>qatest010822+2@gmail.com</t>
-  </si>
-  <si>
-    <t>qatest010822+3@gmail.com</t>
-  </si>
-  <si>
-    <t>qatest010822+4@gmail.com</t>
-  </si>
-  <si>
-    <t>Manual Training</t>
-  </si>
-  <si>
-    <t>NAME_CERTIFICATE</t>
-  </si>
-  <si>
-    <t>COURSE</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CREDENTIAL_ID</t>
-  </si>
-  <si>
-    <t>cristiansalazar822@gmail.com</t>
-  </si>
-  <si>
-    <t>CREDENTIAL_URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,12 +528,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -409,16 +738,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,17 +769,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -472,12 +801,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -485,37 +1053,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -713,396 +1323,395 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A3:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="24.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="27.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="13.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="26.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="18.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="17.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>89</v>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>79968434</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5">
+        <v>75969446</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6">
-        <v>75969446</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>21</v>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5">
         <v>79734629</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>87</v>
+      <c r="G6" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>26</v>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="6">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
         <v>72992950</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>88</v>
+      <c r="G7" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="2"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -1112,75 +1721,75 @@
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="2"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="5"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1193,7 +1802,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1206,7 +1815,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:11">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1219,7 +1828,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:11">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1232,7 +1841,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:11">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1245,7 +1854,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1258,7 +1867,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1273,342 +1882,345 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{5E38F3CA-67E7-4E10-8DAB-3CCAFC3B4C64}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{51CB6633-CCE7-48EE-A612-0B7C7CB9C0BB}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{3B8D6EEB-306D-47A5-A73F-03229E409440}"/>
-    <hyperlink ref="G7" r:id="rId8" xr:uid="{EBDFC684-F8A7-46CA-8CE1-D65BD227C260}"/>
+    <hyperlink ref="J4" r:id="rId1" display="https://www.qa-cademy.com/certificates/d0ad4694320b0f3c/Certificate.pdf"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://www.qa-cademy.com/certificates/0ce6016e3fed8204/Certificate.pdf"/>
+    <hyperlink ref="J6" r:id="rId3" display="https://www.qa-cademy.com/certificates/93cf3179fd408a95/Certificate.pdf"/>
+    <hyperlink ref="J7" r:id="rId4" display="https://www.qa-cademy.com/certificates/01a5a52e95202754/Certificate.pdf"/>
+    <hyperlink ref="G4" r:id="rId5" display="cristiansalazar822@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId6" display="qatest010822+2@gmail.com"/>
+    <hyperlink ref="G6" r:id="rId7" display="qatest010822+3@gmail.com"/>
+    <hyperlink ref="G7" r:id="rId8" display="qatest010822+4@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A3:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="27.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="28.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="15.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="15.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="56.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4">
         <v>72737671</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5">
         <v>71565372</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5">
         <v>70341097</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="6">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5">
         <v>71479060</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="6">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5">
         <v>67333336</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="6">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5">
         <v>68524134</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6">
+        <v>82</v>
+      </c>
+      <c r="E10" s="5">
         <v>76966771</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E11" s="4">
         <v>69010704</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>77</v>
+      <c r="F11" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="6">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5">
         <v>70773887</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>83</v>
+      <c r="F12" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1620,7 +2232,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1632,7 +2244,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1644,7 +2256,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1656,7 +2268,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1668,7 +2280,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1680,7 +2292,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1692,7 +2304,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1704,7 +2316,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1716,7 +2328,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1728,7 +2340,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1740,7 +2352,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1752,7 +2364,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1764,7 +2376,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1776,7 +2388,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1788,7 +2400,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1800,7 +2412,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1812,7 +2424,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1824,7 +2436,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1836,7 +2448,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1848,7 +2460,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1860,7 +2472,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1872,7 +2484,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1886,16 +2498,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="I12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.qa-cademy.com/certificates/46fd7fc2415aa395/Certificate.pdf"/>
+    <hyperlink ref="I5" r:id="rId2" display="https://www.qa-cademy.com/certificates/075dcc3e50669206/Certificate.pdf"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://www.qa-cademy.com/certificates/288a6b82edf1e5a6/Certificate.pdf"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://www.qa-cademy.com/certificates/34a48ba377f3d180/Certificate.pdf"/>
+    <hyperlink ref="I8" r:id="rId5" display="https://www.qa-cademy.com/certificates/6ee908e24c31ea47/Certificate.pdf"/>
+    <hyperlink ref="I9" r:id="rId6" display="https://www.qa-cademy.com/certificates/479a834a92b732cb/Certificate.pdf"/>
+    <hyperlink ref="I10" r:id="rId7" display="https://www.qa-cademy.com/certificates/ae2d056b9c639966/Certificate.pdf"/>
+    <hyperlink ref="I11" r:id="rId8" display="https://www.qa-cademy.com/certificates/d1734a52c58613cb/Certificate.pdf"/>
+    <hyperlink ref="I12" r:id="rId9" display="https://www.qa-cademy.com/certificates/7be9057042a5a5af/Certificate.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resources/templates/data/Certificados 5.0 QA - AT.xlsx
+++ b/resources/templates/data/Certificados 5.0 QA - AT.xlsx
@@ -316,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -365,14 +365,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,16 +385,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,23 +408,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -433,6 +465,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,15 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,45 +494,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,25 +528,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +678,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,133 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,17 +802,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,6 +815,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -837,35 +842,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,149 +875,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,10 +1331,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:K35"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5740740740741" defaultRowHeight="15.75" customHeight="1"/>
@@ -1349,176 +1349,202 @@
     <col min="10" max="10" width="64" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4">
+        <v>79968434</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5">
+        <v>75969446</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="15">
         <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="10">
-        <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4">
-        <v>79968434</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>79734629</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="13"/>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5">
-        <v>75969446</v>
+        <v>72992950</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="15">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5">
-        <v>79734629</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="15">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5">
-        <v>72992950</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
@@ -1549,7 +1575,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
@@ -1562,7 +1588,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="8"/>
@@ -1635,12 +1661,12 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="8"/>
@@ -1661,12 +1687,12 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="2"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="8"/>
@@ -1691,7 +1717,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1717,7 +1743,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1726,8 +1752,8 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
@@ -1739,8 +1765,8 @@
     </row>
     <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="5"/>
@@ -1752,8 +1778,8 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="2"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
@@ -1765,28 +1791,28 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -1854,42 +1880,16 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="https://www.qa-cademy.com/certificates/d0ad4694320b0f3c/Certificate.pdf"/>
-    <hyperlink ref="J5" r:id="rId2" display="https://www.qa-cademy.com/certificates/0ce6016e3fed8204/Certificate.pdf"/>
-    <hyperlink ref="J6" r:id="rId3" display="https://www.qa-cademy.com/certificates/93cf3179fd408a95/Certificate.pdf"/>
-    <hyperlink ref="J7" r:id="rId4" display="https://www.qa-cademy.com/certificates/01a5a52e95202754/Certificate.pdf"/>
-    <hyperlink ref="G4" r:id="rId5" display="cristiansalazar822@gmail.com"/>
-    <hyperlink ref="G5" r:id="rId6" display="qatest010822+2@gmail.com"/>
-    <hyperlink ref="G6" r:id="rId7" display="qatest010822+3@gmail.com"/>
-    <hyperlink ref="G7" r:id="rId8" display="qatest010822+4@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://www.qa-cademy.com/certificates/d0ad4694320b0f3c/Certificate.pdf"/>
+    <hyperlink ref="J3" r:id="rId2" display="https://www.qa-cademy.com/certificates/0ce6016e3fed8204/Certificate.pdf"/>
+    <hyperlink ref="J4" r:id="rId3" display="https://www.qa-cademy.com/certificates/93cf3179fd408a95/Certificate.pdf"/>
+    <hyperlink ref="J5" r:id="rId4" display="https://www.qa-cademy.com/certificates/01a5a52e95202754/Certificate.pdf"/>
+    <hyperlink ref="G2" r:id="rId5" display="cristiansalazar822@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId6" display="qatest010822+2@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId7" display="qatest010822+3@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId8" display="qatest010822+4@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
